--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Password</t>
   </si>
@@ -59,13 +59,18 @@
   </si>
   <si>
     <t>user04</t>
+  </si>
+  <si>
+    <t>jkjk</t>
+  </si>
+  <si>
+    <t>kjl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -422,23 +427,23 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -533,7 +538,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1"/>
+    <row r="6" spans="1:7">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" s="2" customFormat="1"/>
     <row r="13" spans="1:7" s="2" customFormat="1"/>
     <row r="16" spans="1:7" s="2" customFormat="1"/>
